--- a/seeds/schemas/accounts.xlsx
+++ b/seeds/schemas/accounts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="columns_mapper" sheetId="1" state="visible" r:id="rId3"/>
@@ -540,7 +540,7 @@
     <t xml:space="preserve">0 1118614244</t>
   </si>
   <si>
-    <t xml:space="preserve">ahmed@devkit.com</t>
+    <t xml:space="preserve">ahmed@devkit.comtalplatformai</t>
   </si>
   <si>
     <t xml:space="preserve">super admin</t>
@@ -552,7 +552,7 @@
     <t xml:space="preserve">kareem</t>
   </si>
   <si>
-    <t xml:space="preserve">kareem@devkit.com</t>
+    <t xml:space="preserve">kareem@devkit.comtalplatformai</t>
   </si>
   <si>
     <t xml:space="preserve">images/avatar2.webp</t>
@@ -565,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -663,12 +671,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,10 +690,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -701,6 +709,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -978,58 +990,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1065,16 +1077,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1088,7 +1100,7 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1127,7 +1139,7 @@
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1135,13 +1147,13 @@
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1207,231 +1219,239 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1456,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1474,611 +1494,611 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2101,10 +2121,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2118,39 +2138,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E2" s="8" t="n">
@@ -2159,21 +2179,21 @@
       <c r="F2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>1202290100</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E3" s="8" t="n">
@@ -2182,17 +2202,19 @@
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="ahmed@devkit.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="kareem@devkit.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/seeds/schemas/accounts.xlsx
+++ b/seeds/schemas/accounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="columns_mapper" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -150,88 +150,79 @@
     <t xml:space="preserve">Accounts | users | people | members | profiles | management | permissions | roles | access | الحسابات | المستخدمين | الأشخاص | الأعضاء | ملفات شخصية | إدارة | صلاحيات | أدوار | وصول</t>
   </si>
   <si>
-    <t xml:space="preserve">03_tenants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشركات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">building-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenants | companies | clients | organizations | businesses | management | list | directory | المستأجرين | شركات | عملاء | منظمات | الأعمال | إدارة | قائمة | دليل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planet-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public | icons | buckets | files | translations | عام | أيقونات | حاويات | ملفات | ترجمات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الممتلكات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map-pin-2-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property | cities | locations | الممتلكات | المدن | المواقع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المحتوى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content | pages | sections | partials | المحتوى | صفحات | أقسام | أجزاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_c_dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_c_property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_c_content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_c_media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الوسائط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multi-image-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media | buckets | files | الوسائط | حاويات | ملفات</t>
+    <t xml:space="preserve">03_projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المشاريع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder-open-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects | portfolio | initiatives | tasks | management | planning | operations | ventures | المشاريع | المبادرات | مهام | إدارة | تخطيط | عمليات | مشاريع جديدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الوظائف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">briefcase-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs | hiring | recruitment | openings | careers | vacancies | opportunities | employment | الوظائف | التوظيف | فرص | شواغر | وظائف جديدة | وظائف خالية | عمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_sourcing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourcing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التوريد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search-ai-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourcing | suppliers | acquisition | procurement | resources | supply | talent sourcing | التوريد | المصادر | الموردين | الشراء | استقطاب | مواهب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الوكلاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai-agent-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agents | representatives | partners | brokers | collaborators | staff | network | الوكلاء | المندوبين | الشركاء | الوسطاء | فريق | شبكة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التواصل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message-ai-3-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication | messages | chat | inbox | discussions | contact | feedback | التواصل | الرسائل | محادثات | صندوق وارد | مناقشات | تواصل | تعليقات</t>
   </si>
   <si>
     <t xml:space="preserve">01_roles</t>
@@ -273,244 +264,262 @@
     <t xml:space="preserve">Users | accounts | members | people | profiles | management | list | create | add user | المستخدمين | الحسابات | الأعضاء | الأشخاص | الملفات الشخصية | إدارة | قائمة | إنشاء | إضافة مستخدم</t>
   </si>
   <si>
-    <t xml:space="preserve">03_sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الجلسات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer-2-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/accounts/session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthSessionList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessions | auth sessions | tokens | security | إدارة الجلسات | الرموز | الأمن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأيقونات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/public/icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icons | symbols | glyphs | pictograms | graphics | list | library | design | الأيقونات | الرموز | الرسومات | قائمة | مكتبة | تصميم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المجلدات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safe-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/public/bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BucketList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckets | folders | directories | storage | containers | file management | list | المجلدات | الحاويات | التخزين | إدارة الملفات | قائمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الملفات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/public/file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Files | objects | assets | documents | uploads | storage | management | list | الملفات | الكائنات | الأصول | المستندات | المرفقات | التخزين | إدارة | قائمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_galleries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galleries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معارض الصور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/public/gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GalleryList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galleries | images | photos | album | معرض الصور | صور | ألبوم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الترجمات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/public/translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TranslationList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations | localization | internationalization | i18n | l10n | languages | text | strings | manage | الترجمات | التوطين | التدويل | اللغات | النصوص | إدارة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المدن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/property/city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CityList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cities | locations | المدن | المواقع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المواقع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map-pin-user-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/property/location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations | places | المواقع | الأماكن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصفحات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/tenant/page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages | web pages | documents | site structure | content | management | الصفحات | صفحات الويب | المستندات | هيكل الموقع | محتوى | إدارة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأقسام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grid-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/tenant/section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SectionList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sections | blocks | components | page parts | layout | content management | أقسام | كتل | مكونات | أجزاء الصفحة | تخطيط | إدارة المحتوى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_partials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأجزاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball-pen-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/tenant/partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartialList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partials | services | projects | reusable components | snippets | templates | portfolio | offerings | الأجزاء | مكونات قابلة لإعادة الاستخدام | قوالب | المعرض | العروض</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_c_cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/property/citie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_c_locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_c_pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_c_sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_c_partials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01_c_buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_c_files</t>
+    <t xml:space="preserve">02_shortlisted_projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortlisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المختارة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user-heart-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/projects/shortlisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SourcingProjectList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortlisted | favorites | shortlisted projects | priority | المختارة | المفضلة | المشاريع المميزة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_project_reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التقارير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar-chart-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/projects/reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports | insights | analytics | performance | metrics | تقارير | تحليلات | أداء | إحصائيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_project_team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفريق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/projects/team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team | members | collaborators | assignments | الفريق | الأعضاء | التعاون | المهام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_project_tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المهام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list-check-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/projects/tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks | todo | work | management | subtasks | المهام | الأعمال | إدارة | متابعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_all_jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جميع الوظائف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">briefcase-2-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/jobs/all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Jobs | jobs | positions | openings | careers | جميع الوظائف | فرص العمل | شواغر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_jobs_analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحليل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie-chart-2-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/jobs/analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis | reports | insights | performance | التحليل | تقارير | إحصائيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_all_sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جميع الجلسات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sourcing/session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Sessions | sourcing | recruitment | processes | management | جميع الجلسات | التوريد | إدارة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_sourcing_analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pie-chart-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sourcing/analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_all_agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جميع الوكلاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/agents/all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Agents | team | representatives | partners | network | جميع الوكلاء | المندوبين | الشركاء | فريق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_background_tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المهام الخلفية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/agents/background-tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background Tasks | async jobs | operations | workers | المهام الخلفية | عمليات | تنفيذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_agent_training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التدريب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graduation-cap-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/agents/training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training | learning | education | skill development | التدريب | تعليم | تطوير | مهارات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_all_sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جميع التسلسلات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/communication/sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Sequences | communication | sequences | campaigns | workflows | جميع التسلسلات | تواصل | حملات | تسلسل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_comm_analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/communication/analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis | insights | metrics | التحليل | تقارير | إحصائيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_comm_reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar-chart-2-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/communication/reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports | communication reports | metrics | summaries | التقارير | تحليلات | أداء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_comm_config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإعدادات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings-3-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/communication/configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration | setup | parameters | settings | الإعدادات | تهيئة | إعداد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_comm_inbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الوارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inbox-archive-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/communication/inbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbox | messages | chat | communication | البريد الوارد | الرسائل | محادثات</t>
   </si>
   <si>
     <t xml:space="preserve">user_name</t>
@@ -540,7 +549,7 @@
     <t xml:space="preserve">0 1118614244</t>
   </si>
   <si>
-    <t xml:space="preserve">ahmed@devkit.comtalplatformai</t>
+    <t xml:space="preserve">ahmed@talplatform.ai</t>
   </si>
   <si>
     <t xml:space="preserve">super admin</t>
@@ -552,10 +561,127 @@
     <t xml:space="preserve">kareem</t>
   </si>
   <si>
-    <t xml:space="preserve">kareem@devkit.comtalplatformai</t>
+    <t xml:space="preserve">kareem@talplatform.ai</t>
   </si>
   <si>
     <t xml:space="preserve">images/avatar2.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brone@talplatform.ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/avatar3.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frankie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frankie@talplatform.ai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">avatar4.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mo_fahmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mo_fahmi@talplatform.ai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">avatar5.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarah@talplatform.ai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">avatar6.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">anjila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjila@talplatform.ai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">avatar7.webp</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -565,7 +691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +728,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -609,12 +743,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -671,7 +803,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,15 +836,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -758,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:G6" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:G15" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
     <tableColumn id="1" name="navigation_bar"/>
     <tableColumn id="2" name="menu_key"/>
@@ -784,8 +924,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table4" displayName="Table4" ref="A1:I13" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table4" displayName="Table4" ref="A1:I11" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I11"/>
   <tableColumns count="9">
     <tableColumn id="1" name="navigation_bar"/>
     <tableColumn id="2" name="menu_key"/>
@@ -1126,7 +1266,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1202,259 +1342,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="149.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="162.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1474,101 +1610,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="32.1796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="140.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="32.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>35</v>
@@ -1577,531 +1715,501 @@
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="G16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
+      <c r="E19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2121,10 +2229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2135,86 +2243,202 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="8" t="n">
+        <v>173</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>12345678</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>171</v>
+      <c r="F2" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1202290100</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="G3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1304456789</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>12345678</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="9"/>
+      <c r="F4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1407890123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1501234567</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1609876543</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="10"/>
-    </row>
+      <c r="A8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1704567890</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="ahmed@devkit.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="ahmed@talplatform.ai"/>
+    <hyperlink ref="D3" r:id="rId2" display="kareem@talplatform.ai"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
